--- a/project/RLH.xlsx
+++ b/project/RLH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devar\OneDrive\Desktop\GIT\devarsh-Tops-\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A3DD3C-0833-4117-A2A7-44BC2F4ECD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEB8C2-DFC0-4DC5-BF3D-62B3FFF767CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8CBE78C-C9A7-474D-BFE7-CD53E390CC46}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B8CBE78C-C9A7-474D-BFE7-CD53E390CC46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A67E3A8-4588-41A3-A749-DB6544EE880C}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="4" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
